--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3816.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3816.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.59113536519211</v>
+        <v>6.584661960601807</v>
       </c>
       <c r="B1">
-        <v>2.081649499423172</v>
+        <v>5.37336254119873</v>
       </c>
       <c r="C1">
-        <v>3.247270250953862</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>5.271967104143532</v>
+        <v>3.843790769577026</v>
       </c>
       <c r="E1">
-        <v>0.5543077709512759</v>
+        <v>1.904935359954834</v>
       </c>
     </row>
   </sheetData>
